--- a/biology/Médecine/Drew_Pinsky/Drew_Pinsky.xlsx
+++ b/biology/Médecine/Drew_Pinsky/Drew_Pinsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drew Pinsky est un animateur de télévision, un médecin et un acteur américain né le 4 septembre 1958 à Pasadena, en Californie.
 Depuis 2008 il est l'animateur/médecin de Celebrity Rehab, émission qui aide des célébrités à soigner leurs addictions (drogue, alcool...) pour la chaine VH1. Parmi ces célébrités citons Brigitte Nielsen, Dennis Rodman, Janice Dickinson, Eric Roberts, Sean Young ou encore Daniel Baldwin.
@@ -514,10 +526,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cinèma
-2004 : Escapade à New York (New York Minute) : Dr. Ryan
-Télévision
-2000 : Loveline: Live in Times Square
+          <t>Cinèma</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2004 : Escapade à New York (New York Minute) : Dr. Ryan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Drew_Pinsky</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drew_Pinsky</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2000 : Loveline: Live in Times Square
 2000 : Men Are from Mars, Women Are from Venus : Animateur
 2003 : Dawson (série TV) - Saison 6, épisode 19 (Docteur Drew est Mister Love)  : Lui-même
 2005 : Strictly Sex with Dr. Drew : Animateur
